--- a/Test_Cases_Estimations.xlsx
+++ b/Test_Cases_Estimations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sastri/Inspired Testing Interview Project/Java_Senior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Assessment Files\interviewjava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145BE7C9-BCEA-5F47-8D9A-8452FFB813EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E76955-F841-4E6C-8A50-F64E9D3794D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{832FD4A2-3E7B-4431-9715-6257D228A0EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{832FD4A2-3E7B-4431-9715-6257D228A0EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>TestName</t>
   </si>
@@ -173,13 +178,61 @@
   </si>
   <si>
     <t>Estimate (hours/mins)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>2-3 hours</t>
+  </si>
+  <si>
+    <t>3-8 hours</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8-16 hours</t>
+  </si>
+  <si>
+    <t>16 + hours</t>
+  </si>
+  <si>
+    <t>(Simple Test. Additional Time added for setup and config of framework for scripting.)</t>
+  </si>
+  <si>
+    <t>(Simple Test. Build on what was created from Test 1)</t>
+  </si>
+  <si>
+    <t>(New pages / functionality to script. Script with re-use in mind)</t>
+  </si>
+  <si>
+    <t>(Re-use TC-03 with different data)</t>
+  </si>
+  <si>
+    <t>(Largest Test case. Additional Pages added. More time allocated.)</t>
+  </si>
+  <si>
+    <t>Time Estimation: 2xM, 2xS</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +245,14 @@
       <color rgb="FF232323"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,11 +275,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,35 +600,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B8AF4A-3C5A-4035-BA3E-8D42085E7403}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -573,261 +647,387 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <f>2+2+3+3+8</f>
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <f>3+3+8+8+16</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
@@ -843,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
